--- a/Stocks/PEL.xlsx
+++ b/Stocks/PEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2553.3333333333335</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2941.2003794958591</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2897.3610734852537</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>44.530511621638908</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>84.300000000000182</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>5.9311981020165945E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2898.5771895459397</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>19.029076284346502</v>
       </c>
       <c r="Y67">
         <v>21.487205987422648</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2677.1</v>
+      </c>
+      <c r="D83">
+        <v>2705.3</v>
+      </c>
+      <c r="E83">
+        <v>2670</v>
+      </c>
+      <c r="F83">
+        <v>2685.4</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2686.9</v>
+      </c>
+      <c r="H83">
+        <v>2664.4408254045538</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>2717.8884826426588</v>
+      </c>
+      <c r="K83">
+        <v>2646.2328895743276</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>50.164962277971426</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>15.400000000000091</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>35.300000000000182</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.43626062322946207</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>2705.8913788046029</v>
+      </c>
+      <c r="W83">
+        <v>2772.1592770761031</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-66.267898271500144</v>
+      </c>
+      <c r="Y83">
+        <v>-51.373678157108351</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2690.1</v>
+      </c>
+      <c r="D84">
+        <v>2710</v>
+      </c>
+      <c r="E84">
+        <v>2640</v>
+      </c>
+      <c r="F84">
+        <v>2669.05</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2673.0166666666669</v>
+      </c>
+      <c r="H84">
+        <v>2668.7287460356101</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>2716.1354864998457</v>
+      </c>
+      <c r="K84">
+        <v>2644.8478030022548</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>45.200188211114998</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>29.050000000000182</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>70</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.41500000000000259</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>2700.2234743731256</v>
+      </c>
+      <c r="W84">
+        <v>2764.5215528482436</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-64.298078475118018</v>
+      </c>
+      <c r="Y84">
+        <v>-53.958558220710287</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2700</v>
+      </c>
+      <c r="D85">
+        <v>2735</v>
+      </c>
+      <c r="E85">
+        <v>2673.05</v>
+      </c>
+      <c r="F85">
+        <v>2712.45</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2706.8333333333335</v>
+      </c>
+      <c r="H85">
+        <v>2687.7810396844716</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>2720.3276006109909</v>
+      </c>
+      <c r="K85">
+        <v>2651.1149578906425</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>58.746986498488738</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>39.399999999999636</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>61.949999999999818</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.63599677158998791</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2702.1044783157217</v>
+      </c>
+      <c r="W85">
+        <v>2760.6644007854106</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-58.5599224696889</v>
+      </c>
+      <c r="Y85">
+        <v>-54.87883107050601</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2721</v>
+      </c>
+      <c r="D86">
+        <v>2730.6</v>
+      </c>
+      <c r="E86">
+        <v>2700.65</v>
+      </c>
+      <c r="F86">
+        <v>2708</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2713.0833333333335</v>
+      </c>
+      <c r="H86">
+        <v>2700.4321865089023</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>2722.6103560307706</v>
+      </c>
+      <c r="K86">
+        <v>2662.1227450260553</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>56.942818998671108</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.3499999999999091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>29.949999999999818</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.2454090150250402</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>2703.0114816517644</v>
+      </c>
+      <c r="W86">
+        <v>2756.7633340605653</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-53.751852408800914</v>
+      </c>
+      <c r="Y86">
+        <v>-54.653435338164989</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2729.9</v>
+      </c>
+      <c r="D87">
+        <v>2773.8</v>
+      </c>
+      <c r="E87">
+        <v>2714</v>
+      </c>
+      <c r="F87">
+        <v>2767.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2751.9</v>
+      </c>
+      <c r="H87">
+        <v>2726.166093254451</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>2733.9858324683773</v>
+      </c>
+      <c r="K87">
+        <v>2673.651023909154</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>71.611933526128325</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>53.900000000000091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>59.800000000000182</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.9013377926421392</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>2712.9943306284158</v>
+      </c>
+      <c r="W87">
+        <v>2757.5882722783012</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-44.593941649885437</v>
+      </c>
+      <c r="Y87">
+        <v>-52.641536600509077</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2760</v>
+      </c>
+      <c r="D88">
+        <v>2770</v>
+      </c>
+      <c r="E88">
+        <v>2671</v>
+      </c>
+      <c r="F88">
+        <v>2695</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2712</v>
+      </c>
+      <c r="H88">
+        <v>2719.0830466272255</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>2741.9889808087378</v>
+      </c>
+      <c r="K88">
+        <v>2673.0619074848973</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>47.166317138554312</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>99</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2710.2259720701982</v>
+      </c>
+      <c r="W88">
+        <v>2752.9521039613901</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-42.726131891191926</v>
+      </c>
+      <c r="Y88">
+        <v>-50.65845565864565</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2755</v>
+      </c>
+      <c r="D89">
+        <v>2758.5</v>
+      </c>
+      <c r="E89">
+        <v>2686.95</v>
+      </c>
+      <c r="F89">
+        <v>2697</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2714.15</v>
+      </c>
+      <c r="H89">
+        <v>2716.6165233136126</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>2745.6580961845739</v>
+      </c>
+      <c r="K89">
+        <v>2676.1481502660313</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>47.777659381390286</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>10.050000000000182</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>71.550000000000182</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.14046121593291624</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2708.1912071363217</v>
+      </c>
+      <c r="W89">
+        <v>2748.8075036679538</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-40.616296531632088</v>
+      </c>
+      <c r="Y89">
+        <v>-48.65002383324294</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2686</v>
+      </c>
+      <c r="D90">
+        <v>2729.85</v>
+      </c>
+      <c r="E90">
+        <v>2662.2</v>
+      </c>
+      <c r="F90">
+        <v>2692.9</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2694.9833333333331</v>
+      </c>
+      <c r="H90">
+        <v>2705.7999283234731</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>2742.1451859213353</v>
+      </c>
+      <c r="K90">
+        <v>2673.0485613180244</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>46.40180561999334</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>30.700000000000273</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>67.650000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.45380635624538407</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2705.8387137307336</v>
+      </c>
+      <c r="W90">
+        <v>2744.6662070999573</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-38.827493369223703</v>
+      </c>
+      <c r="Y90">
+        <v>-46.685517740439096</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2722</v>
+      </c>
+      <c r="D91">
+        <v>2722</v>
+      </c>
+      <c r="E91">
+        <v>2691</v>
+      </c>
+      <c r="F91">
+        <v>2699</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2704</v>
+      </c>
+      <c r="H91">
+        <v>2704.8999641617365</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>2737.6684779388165</v>
+      </c>
+      <c r="K91">
+        <v>2677.037769914019</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>49.126364339553042</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2704.7866039260052</v>
+      </c>
+      <c r="W91">
+        <v>2741.2835250925532</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-36.496921166547963</v>
+      </c>
+      <c r="Y91">
+        <v>-44.647798425660866</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2703.1</v>
+      </c>
+      <c r="D92">
+        <v>2745</v>
+      </c>
+      <c r="E92">
+        <v>2678.8</v>
+      </c>
+      <c r="F92">
+        <v>2699</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2707.6</v>
+      </c>
+      <c r="H92">
+        <v>2706.249982080868</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2739.2977050635241</v>
+      </c>
+      <c r="K92">
+        <v>2677.4293765997927</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>49.126364339553035</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>20.199999999999818</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>66.199999999999818</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.30513595166162949</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2703.8963571681584</v>
+      </c>
+      <c r="W92">
+        <v>2738.1514121227347</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-34.255054954576281</v>
+      </c>
+      <c r="Y92">
+        <v>-42.569249731443946</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2700.3</v>
+      </c>
+      <c r="D93">
+        <v>2722.3</v>
+      </c>
+      <c r="E93">
+        <v>2675.05</v>
+      </c>
+      <c r="F93">
+        <v>2695</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2697.4500000000003</v>
+      </c>
+      <c r="H93">
+        <v>2701.8499910404344</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>2735.5204372716298</v>
+      </c>
+      <c r="K93">
+        <v>2676.9006262442831</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>46.694379816710537</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>19.949999999999818</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>47.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.42222222222221839</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>2702.5276868345954</v>
+      </c>
+      <c r="W93">
+        <v>2734.9550112247543</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-32.427324390158901</v>
+      </c>
+      <c r="Y93">
+        <v>-40.540864663186937</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2705.05</v>
+      </c>
+      <c r="D94">
+        <v>2768</v>
+      </c>
+      <c r="E94">
+        <v>2695.15</v>
+      </c>
+      <c r="F94">
+        <v>2760.05</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2741.0666666666671</v>
+      </c>
+      <c r="H94">
+        <v>2721.4583288535505</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>2742.7381178779342</v>
+      </c>
+      <c r="K94">
+        <v>2680.9560426344424</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>73.431374563408298</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>64.900000000000091</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>72.849999999999909</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.89087165408373603</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>2711.377273475427</v>
+      </c>
+      <c r="W94">
+        <v>2736.81389928218</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-25.436625806753</v>
+      </c>
+      <c r="Y94">
+        <v>-37.520016891900148</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2760</v>
+      </c>
+      <c r="D95">
+        <v>2788</v>
+      </c>
+      <c r="E95">
+        <v>2747.25</v>
+      </c>
+      <c r="F95">
+        <v>2756.35</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2763.8666666666668</v>
+      </c>
+      <c r="H95">
+        <v>2742.6624977601086</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>2752.7963139050598</v>
+      </c>
+      <c r="K95">
+        <v>2695.6880331601219</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>70.902846954124911</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>9.0999999999999091</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>40.75</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.22331288343558059</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2718.2961544792074</v>
+      </c>
+      <c r="W95">
+        <v>2738.2610178538703</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-19.964863374662855</v>
+      </c>
+      <c r="Y95">
+        <v>-34.008986188452688</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2780</v>
+      </c>
+      <c r="D96">
+        <v>2930.3</v>
+      </c>
+      <c r="E96">
+        <v>2772.8</v>
+      </c>
+      <c r="F96">
+        <v>2924.7</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2875.9333333333329</v>
+      </c>
+      <c r="H96">
+        <v>2809.297915546721</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>2792.2415774817132</v>
+      </c>
+      <c r="K96">
+        <v>2712.8240257912062</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>90.164654997993026</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>151.89999999999964</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>157.5</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.96444444444444211</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>2750.0505922516372</v>
+      </c>
+      <c r="W96">
+        <v>2752.0713128276575</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-2.0207205760202669</v>
+      </c>
+      <c r="Y96">
+        <v>-27.611333065966203</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>2790.75</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>2832.9500000000003</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>2851.55</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>2870.15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2922</v>
+      </c>
+      <c r="D97">
+        <v>2926.25</v>
+      </c>
+      <c r="E97">
+        <v>2860</v>
+      </c>
+      <c r="F97">
+        <v>2871.65</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2885.9666666666667</v>
+      </c>
+      <c r="H97">
+        <v>2847.6322911066936</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>2822.0212269302215</v>
+      </c>
+      <c r="K97">
+        <v>2745.5297978376047</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>71.516526753894127</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>11.650000000000091</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>66.25</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.17584905660377495</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>2768.758193443693</v>
+      </c>
+      <c r="W97">
+        <v>2760.9289933589421</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>7.8292000847509371</v>
+      </c>
+      <c r="Y97">
+        <v>-20.523226435822775</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2899.4</v>
+      </c>
+      <c r="D98">
+        <v>2899.9</v>
+      </c>
+      <c r="E98">
+        <v>2829.95</v>
+      </c>
+      <c r="F98">
+        <v>2841.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2856.9833333333336</v>
+      </c>
+      <c r="H98">
+        <v>2852.3078122200136</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>2839.3276209457276</v>
+      </c>
+      <c r="K98">
+        <v>2764.2898427625814</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>62.248938855616501</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>11.150000000000091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>69.950000000000273</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.15939957112223085</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>2779.8877021446633</v>
+      </c>
+      <c r="W98">
+        <v>2766.8675864434649</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>13.020115701198392</v>
+      </c>
+      <c r="Y98">
+        <v>-13.81455800841854</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2850.1</v>
+      </c>
+      <c r="D99">
+        <v>2850.15</v>
+      </c>
+      <c r="E99">
+        <v>2762.65</v>
+      </c>
+      <c r="F99">
+        <v>2775</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2795.9333333333329</v>
+      </c>
+      <c r="H99">
+        <v>2824.1205727766733</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>2841.7325940688993</v>
+      </c>
+      <c r="K99">
+        <v>2763.9254332597857</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>46.094010024472325</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>12.349999999999909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>87.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.1411428571428561</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2779.1357479685612</v>
+      </c>
+      <c r="W99">
+        <v>2767.4699874476528</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>11.665760520908407</v>
+      </c>
+      <c r="Y99">
+        <v>-8.7184943025531503</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2777</v>
+      </c>
+      <c r="D100">
+        <v>2834.9</v>
+      </c>
+      <c r="E100">
+        <v>2753.95</v>
+      </c>
+      <c r="F100">
+        <v>2802.6</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2797.15</v>
+      </c>
+      <c r="H100">
+        <v>2810.6352863883367</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>2840.2142398313663</v>
+      </c>
+      <c r="K100">
+        <v>2761.7086703131667</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>52.524711440292663</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>48.650000000000091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>80.950000000000273</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.60098826436071562</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2782.7456328964749</v>
+      </c>
+      <c r="W100">
+        <v>2770.0722105996783</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>12.673422296796616</v>
+      </c>
+      <c r="Y100">
+        <v>-4.4401109826831968</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2810.85</v>
+      </c>
+      <c r="D101">
+        <v>2844.4</v>
+      </c>
+      <c r="E101">
+        <v>2775</v>
+      </c>
+      <c r="F101">
+        <v>2830</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2816.4666666666667</v>
+      </c>
+      <c r="H101">
+        <v>2813.5509765275019</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>2841.1444087577293</v>
+      </c>
+      <c r="K101">
+        <v>2764.662299132463</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>58.646583000352358</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>55</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>69.400000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.79250720461094992</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>2790.0155355277866</v>
+      </c>
+      <c r="W101">
+        <v>2774.5113061108132</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>15.50422941697343</v>
+      </c>
+      <c r="Y101">
+        <v>-0.45124290275187118</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2815.1</v>
+      </c>
+      <c r="D102">
+        <v>2831.85</v>
+      </c>
+      <c r="E102">
+        <v>2732.35</v>
+      </c>
+      <c r="F102">
+        <v>2750</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2771.4</v>
+      </c>
+      <c r="H102">
+        <v>2792.4754882637508</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>2839.0789845893451</v>
+      </c>
+      <c r="K102">
+        <v>2757.4817882141379</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>39.878942641604183</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>17.650000000000091</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>99.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.17738693467336775</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>2783.8592992927424</v>
+      </c>
+      <c r="W102">
+        <v>2772.6956538063087</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>11.163645486433779</v>
+      </c>
+      <c r="Y102">
+        <v>1.8717347750852591</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2750.1</v>
+      </c>
+      <c r="D103">
+        <v>2754.05</v>
+      </c>
+      <c r="E103">
+        <v>2670</v>
+      </c>
+      <c r="F103">
+        <v>2715</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2713.0166666666669</v>
+      </c>
+      <c r="H103">
+        <v>2752.7460774652091</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>2820.1836546806016</v>
+      </c>
+      <c r="K103">
+        <v>2738.0413908332184</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>33.939328006611177</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>84.050000000000182</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.53539559785841639</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2773.2655609400126</v>
+      </c>
+      <c r="W103">
+        <v>2768.4219016725078</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>4.8436592675047905</v>
+      </c>
+      <c r="Y103">
+        <v>2.4661196735691653</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2675.3</v>
+      </c>
+      <c r="D104">
+        <v>2722</v>
+      </c>
+      <c r="E104">
+        <v>2665.5</v>
+      </c>
+      <c r="F104">
+        <v>2669.95</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2685.8166666666666</v>
+      </c>
+      <c r="H104">
+        <v>2719.2813720659378</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2798.3650647515792</v>
+      </c>
+      <c r="K104">
+        <v>2721.9210817591697</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>27.378470806354532</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.4499999999998181</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>56.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>7.8761061946899441E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>2757.3708592569337</v>
+      </c>
+      <c r="W104">
+        <v>2761.1276867338033</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-3.7568274768696028</v>
+      </c>
+      <c r="Y104">
+        <v>1.2215302434814115</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>2715.55</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>2700.4</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>2693.75</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>2687.1000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>2698.4</v>
+      </c>
+      <c r="D105">
+        <v>2723</v>
+      </c>
+      <c r="E105">
+        <v>2597</v>
+      </c>
+      <c r="F105">
+        <v>2610</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>2643.3333333333335</v>
+      </c>
+      <c r="H105">
+        <v>2681.3073526996359</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>2781.6172725845618</v>
+      </c>
+      <c r="K105">
+        <v>2694.1608413682429</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>20.71678541119887</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>126</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.10317460317460317</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>2734.6984193712515</v>
+      </c>
+      <c r="W105">
+        <v>2749.9330432720403</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-15.234623900788847</v>
+      </c>
+      <c r="Y105">
+        <v>-2.0697005853726402</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>2708.65</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>2674.8500000000004</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>2660</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>2645.15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>2625.05</v>
+      </c>
+      <c r="D106">
+        <v>2650</v>
+      </c>
+      <c r="E106">
+        <v>2550.65</v>
+      </c>
+      <c r="F106">
+        <v>2568.85</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>2589.8333333333335</v>
+      </c>
+      <c r="H106">
+        <v>2635.5703430164849</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>2752.3689897879926</v>
+      </c>
+      <c r="K106">
+        <v>2662.2695432864111</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>17.138749277695982</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>18.199999999999818</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>99.349999999999909</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.18319073980875525</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V106">
+        <v>2709.1832779295205</v>
+      </c>
+      <c r="W106">
+        <v>2736.5194845111482</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-27.336206581627721</v>
+      </c>
+      <c r="Y106">
+        <v>-7.1230017846236571</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" si="35"/>
+        <v>2638.65</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" si="36"/>
+        <v>2612.0500000000002</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" si="37"/>
+        <v>2600.3000000000002</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" si="38"/>
+        <v>2588.6000000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>2590</v>
+      </c>
+      <c r="D107">
+        <v>2671.4</v>
+      </c>
+      <c r="E107">
+        <v>2575</v>
+      </c>
+      <c r="F107">
+        <v>2642.95</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>2629.7833333333333</v>
+      </c>
+      <c r="H107">
+        <v>2632.6768381749089</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>2734.3758809462165</v>
+      </c>
+      <c r="K107">
+        <v>2642.8763114449866</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.334330299345602</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>67.949999999999818</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>96.400000000000091</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.70487551867219667</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>2698.9935428634403</v>
+      </c>
+      <c r="W107">
+        <v>2729.5884115843965</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-30.594868720956129</v>
+      </c>
+      <c r="Y107">
+        <v>-11.817375171890152</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
